--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/AUD_MultiSwaptionVols_v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/AUD_MultiSwaptionVols_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E75A9-B72A-4CCD-9DCA-45EDB3B750D7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B9D0E-6223-4439-9A33-3B1ED7F926C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="18075" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwaptionData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1583,10 +1583,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="31" borderId="0" xfId="84" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="172" fontId="1" fillId="31" borderId="0" xfId="84" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="84" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="84" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="104">
     <cellStyle name="_Copy of Portfolios to Archeus 6-3-04 (2)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2172,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -2188,15 +2188,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -2379,25 +2379,25 @@
       <c r="N6" t="str">
         <v>6M</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>0.65925352923265002</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <v>0.40983474822106403</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <v>0.30398059512061298</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>0.32355357885410002</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="22">
         <v>0.457797748871624</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="22">
         <v>0.525385248262631</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="22">
         <v>0.58307867289932003</v>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       <c r="N7" t="str">
         <v>1Y</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>0.54054967613744298</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <v>0.40022443246824901</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <v>0.30262458428220101</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>0.27013042837607198</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="22">
         <v>0.28759063403162499</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="22">
         <v>0.320796307854816</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="22">
         <v>0.35311323490295099</v>
       </c>
     </row>
@@ -2495,25 +2495,25 @@
       <c r="N8" t="str">
         <v>2Y</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="22">
         <v>0.391799824654739</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="22">
         <v>0.32165981641672198</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <v>0.27105801488215597</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>0.25709848075589697</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="22">
         <v>0.212179791196691</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="22">
         <v>0.20495577677294</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="22">
         <v>0.20858491996154699</v>
       </c>
     </row>
@@ -2555,25 +2555,25 @@
       <c r="N9" t="str">
         <v>3Y</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>0.33602937595306398</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <v>0.27948882364653599</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <v>0.238673011613278</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>0.22730536713157901</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="22">
         <v>0.188121390799491</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="22">
         <v>0.17825189474658401</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="22">
         <v>0.17745194290607499</v>
       </c>
     </row>
@@ -2615,25 +2615,25 @@
       <c r="N10" t="str">
         <v>4Y</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="22">
         <v>0.306028627445179</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="22">
         <v>0.25390953690122098</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <v>0.21625441327234901</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>0.205765736877704</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="22">
         <v>0.169787437317972</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="22">
         <v>0.161108306601702</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="22">
         <v>0.16094840123352699</v>
       </c>
     </row>
@@ -2674,25 +2674,25 @@
       <c r="N11" t="str">
         <v>5Y</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="22">
         <v>0.27627928170355298</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="22">
         <v>0.230535793892924</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <v>0.1974252867654</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>0.18814606305960199</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="22">
         <v>0.15522713285598999</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="22">
         <v>0.14579331134242501</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="22">
         <v>0.14381068249492601</v>
       </c>
     </row>
@@ -2734,25 +2734,25 @@
       <c r="N12" t="str">
         <v>7Y</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="22">
         <v>0.252891451045477</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="22">
         <v>0.212298970260238</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <v>0.18278066113814601</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>0.17443241693136999</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="22">
         <v>0.14358842163861901</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="22">
         <v>0.133021400014013</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="22">
         <v>0.128718983576593</v>
       </c>
     </row>
@@ -2793,25 +2793,25 @@
       <c r="N13" t="str">
         <v>10Y</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>0.233689648184703</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="22">
         <v>0.192125861392552</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="22">
         <v>0.161846051005785</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>0.153337540718053</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="22">
         <v>0.123804214709163</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="22">
         <v>0.117041063221042</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="22">
         <v>0.117899255669511</v>
       </c>
     </row>
@@ -2853,25 +2853,25 @@
       <c r="N14" t="str">
         <v>12Y</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="22">
         <v>0.22091072373387799</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="22">
         <v>0.18010497067439399</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <v>0.15036269287117099</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>0.142035879084845</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="22">
         <v>0.114195299250319</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="22">
         <v>0.109535921975299</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="22">
         <v>0.112329805793972</v>
       </c>
     </row>
@@ -2912,25 +2912,25 @@
       <c r="N15" t="str">
         <v>15Y</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>0.223189684232071</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="22">
         <v>0.17854142822715699</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="22">
         <v>0.1468033763246</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>0.13842880229230001</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="22">
         <v>0.11837053239939301</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="22">
         <v>0.121452139040522</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="22">
         <v>0.12906619251595</v>
       </c>
     </row>
@@ -2971,25 +2971,25 @@
       <c r="N16" t="str">
         <v>20Y</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="22">
         <v>0.25106399779771499</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="22">
         <v>0.18389596931299099</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="22">
         <v>0.133636287092601</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>0.120432925801138</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="22">
         <v>0.113708795675833</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="22">
         <v>0.13237996528156301</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="22">
         <v>0.15033870868642901</v>
       </c>
     </row>
@@ -6904,15 +6904,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
